--- a/src/main/java/com/ilm/qa/testdata/ILMLoginData.xlsx
+++ b/src/main/java/com/ilm/qa/testdata/ILMLoginData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/www/AutomationProjects/EclipseProject/LoyaltyManager/src/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/www/AutomationProjects/EclipseProject/ILMTest/src/main/java/com/ilm/qa/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE4E76C-189C-4F4B-A6ED-C17C3FE34BFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AA6381-B4A9-A14C-BB63-40BFF7D48370}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{A02F04D3-71FB-E045-87DC-E6E04AFD02E0}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>dharshini.sivalingam@invigorgroup.com</t>
-  </si>
-  <si>
     <t>Test@123</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>testt</t>
+  </si>
+  <si>
+    <t>17950884@example.com</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -432,25 +432,24 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{29FE5C6C-FA5C-9D4B-9B57-565CDA0C8B89}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{99DFF7C4-F72F-A047-B8AC-BAD14AEC178E}"/>
-    <hyperlink ref="A3" r:id="rId3" display="dharshini.sivalingam@invigorgroup.com" xr:uid="{E291169F-8C44-8A41-9EAD-DF24DCDFC715}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{99DFF7C4-F72F-A047-B8AC-BAD14AEC178E}"/>
+    <hyperlink ref="A3" r:id="rId2" display="dharshini.sivalingam@invigorgroup.com" xr:uid="{E291169F-8C44-8A41-9EAD-DF24DCDFC715}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
